--- a/SQL_Kozynest/booking.xlsx
+++ b/SQL_Kozynest/booking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYK\Desktop\project\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C419446-F7AF-4736-BA31-AA508A03CF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671078F8-57DC-4AC9-B272-82F33E5F4CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1944" yWindow="1188" windowWidth="12912" windowHeight="13212" xr2:uid="{8F885E1F-B531-4DC0-BCCE-E0108393784C}"/>
+    <workbookView xWindow="1620" yWindow="408" windowWidth="12912" windowHeight="13212" xr2:uid="{8F885E1F-B531-4DC0-BCCE-E0108393784C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="333">
   <si>
     <t>bseq</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1360,6 +1360,9 @@
   <si>
     <t>fpahj631@nate.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hnrkf929@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1741,8 +1744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FEE4AE-EC2E-4538-A6DF-1AA773C23B76}">
   <dimension ref="A1:I542"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="B275" sqref="B275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2395,7 +2398,7 @@
         <v>70821</v>
       </c>
       <c r="B23" s="1">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -2424,7 +2427,7 @@
         <v>70822</v>
       </c>
       <c r="B24" s="1">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>30</v>
@@ -2453,7 +2456,7 @@
         <v>70823</v>
       </c>
       <c r="B25" s="1">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>31</v>
@@ -2656,7 +2659,7 @@
         <v>70830</v>
       </c>
       <c r="B32" s="1">
-        <v>31</v>
+        <v>221</v>
       </c>
       <c r="C32" t="s">
         <v>38</v>
@@ -2743,7 +2746,7 @@
         <v>70833</v>
       </c>
       <c r="B35" s="1">
-        <v>34</v>
+        <v>222</v>
       </c>
       <c r="C35" t="s">
         <v>41</v>
@@ -2888,7 +2891,7 @@
         <v>70838</v>
       </c>
       <c r="B40" s="1">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="C40" t="s">
         <v>46</v>
@@ -2917,7 +2920,7 @@
         <v>70839</v>
       </c>
       <c r="B41" s="1">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>47</v>
@@ -2946,7 +2949,7 @@
         <v>70840</v>
       </c>
       <c r="B42" s="1">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>48</v>
@@ -3323,7 +3326,7 @@
         <v>70853</v>
       </c>
       <c r="B55" s="1">
-        <v>54</v>
+        <v>221</v>
       </c>
       <c r="C55" t="s">
         <v>61</v>
@@ -3439,7 +3442,7 @@
         <v>70857</v>
       </c>
       <c r="B59" s="1">
-        <v>58</v>
+        <v>222</v>
       </c>
       <c r="C59" t="s">
         <v>65</v>
@@ -4135,7 +4138,7 @@
         <v>70881</v>
       </c>
       <c r="B83" s="1">
-        <v>82</v>
+        <v>347</v>
       </c>
       <c r="C83" t="s">
         <v>89</v>
@@ -4164,7 +4167,7 @@
         <v>70882</v>
       </c>
       <c r="B84" s="1">
-        <v>83</v>
+        <v>348</v>
       </c>
       <c r="C84" t="s">
         <v>90</v>
@@ -4196,7 +4199,7 @@
         <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>91</v>
+        <v>332</v>
       </c>
       <c r="D85">
         <v>20220606</v>
@@ -4367,7 +4370,7 @@
         <v>70889</v>
       </c>
       <c r="B91" s="1">
-        <v>90</v>
+        <v>221</v>
       </c>
       <c r="C91" t="s">
         <v>97</v>
@@ -4483,7 +4486,7 @@
         <v>70893</v>
       </c>
       <c r="B95" s="1">
-        <v>94</v>
+        <v>222</v>
       </c>
       <c r="C95" t="s">
         <v>101</v>
@@ -4570,7 +4573,7 @@
         <v>70896</v>
       </c>
       <c r="B98" s="1">
-        <v>97</v>
+        <v>347</v>
       </c>
       <c r="C98" t="s">
         <v>104</v>
@@ -4715,7 +4718,7 @@
         <v>70901</v>
       </c>
       <c r="B103" s="1">
-        <v>102</v>
+        <v>348</v>
       </c>
       <c r="C103" t="s">
         <v>109</v>
@@ -5063,7 +5066,7 @@
         <v>70913</v>
       </c>
       <c r="B115" s="1">
-        <v>114</v>
+        <v>347</v>
       </c>
       <c r="C115" t="s">
         <v>121</v>
@@ -5092,7 +5095,7 @@
         <v>70914</v>
       </c>
       <c r="B116" s="1">
-        <v>115</v>
+        <v>348</v>
       </c>
       <c r="C116" t="s">
         <v>122</v>
@@ -5846,7 +5849,7 @@
         <v>70940</v>
       </c>
       <c r="B142" s="1">
-        <v>141</v>
+        <v>411</v>
       </c>
       <c r="C142" t="s">
         <v>148</v>
@@ -5991,7 +5994,7 @@
         <v>70945</v>
       </c>
       <c r="B147" s="1">
-        <v>146</v>
+        <v>410</v>
       </c>
       <c r="C147" t="s">
         <v>153</v>
@@ -6368,7 +6371,7 @@
         <v>70958</v>
       </c>
       <c r="B160" s="1">
-        <v>159</v>
+        <v>430</v>
       </c>
       <c r="C160" t="s">
         <v>166</v>
@@ -6513,7 +6516,7 @@
         <v>70963</v>
       </c>
       <c r="B165" s="1">
-        <v>164</v>
+        <v>431</v>
       </c>
       <c r="C165" t="s">
         <v>171</v>
@@ -6658,7 +6661,7 @@
         <v>70968</v>
       </c>
       <c r="B170" s="1">
-        <v>169</v>
+        <v>410</v>
       </c>
       <c r="C170" t="s">
         <v>176</v>
@@ -6745,7 +6748,7 @@
         <v>70971</v>
       </c>
       <c r="B173" s="1">
-        <v>172</v>
+        <v>411</v>
       </c>
       <c r="C173" t="s">
         <v>179</v>
@@ -7673,7 +7676,7 @@
         <v>71003</v>
       </c>
       <c r="B205" s="1">
-        <v>204</v>
+        <v>431</v>
       </c>
       <c r="C205" t="s">
         <v>211</v>
@@ -7760,7 +7763,7 @@
         <v>71006</v>
       </c>
       <c r="B208" s="1">
-        <v>207</v>
+        <v>331</v>
       </c>
       <c r="C208" t="s">
         <v>214</v>
@@ -7847,7 +7850,7 @@
         <v>71009</v>
       </c>
       <c r="B211" s="1">
-        <v>210</v>
+        <v>330</v>
       </c>
       <c r="C211" t="s">
         <v>217</v>
@@ -7934,7 +7937,7 @@
         <v>71012</v>
       </c>
       <c r="B214" s="1">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C214" t="s">
         <v>220</v>
@@ -8079,7 +8082,7 @@
         <v>71017</v>
       </c>
       <c r="B219" s="1">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C219" t="s">
         <v>225</v>
@@ -8224,7 +8227,7 @@
         <v>71022</v>
       </c>
       <c r="B224" s="1">
-        <v>223</v>
+        <v>430</v>
       </c>
       <c r="C224" t="s">
         <v>230</v>
@@ -8311,7 +8314,7 @@
         <v>71025</v>
       </c>
       <c r="B227" s="1">
-        <v>226</v>
+        <v>332</v>
       </c>
       <c r="C227" t="s">
         <v>233</v>
@@ -9036,7 +9039,7 @@
         <v>71050</v>
       </c>
       <c r="B252" s="1">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="C252" t="s">
         <v>258</v>
@@ -9181,7 +9184,7 @@
         <v>71055</v>
       </c>
       <c r="B257" s="1">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="C257" t="s">
         <v>263</v>
@@ -9210,7 +9213,7 @@
         <v>71056</v>
       </c>
       <c r="B258" s="1">
-        <v>257</v>
+        <v>411</v>
       </c>
       <c r="C258" t="s">
         <v>264</v>
@@ -9413,7 +9416,7 @@
         <v>71063</v>
       </c>
       <c r="B265" s="1">
-        <v>264</v>
+        <v>410</v>
       </c>
       <c r="C265" t="s">
         <v>271</v>
@@ -9703,7 +9706,7 @@
         <v>71073</v>
       </c>
       <c r="B275" s="1">
-        <v>274</v>
+        <v>222</v>
       </c>
       <c r="C275" t="s">
         <v>281</v>
@@ -9906,7 +9909,7 @@
         <v>71080</v>
       </c>
       <c r="B282" s="1">
-        <v>281</v>
+        <v>221</v>
       </c>
       <c r="C282" t="s">
         <v>288</v>
@@ -17473,5 +17476,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>